--- a/biology/Botanique/Stepin_Lug/Stepin_Lug.xlsx
+++ b/biology/Botanique/Stepin_Lug/Stepin_Lug.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stepin Lug ou Gaj (en serbe cyrillique : Степин Луг ou Гај) est un parc forestier situé pour l'essentiel dans un faubourg non-résidentiel de Belgrade, la capitale de la Serbie. Sa partie méridionale se trouve dans la municipalité de Voždovac et sa partie septentrionale dans celle de Zvezdara.
@@ -512,7 +524,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Localisation de la municipalité de Zvezdara dans la Ville de Belgrade
@@ -546,7 +560,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stepin Lug, autrefois connu sous le nom de Titov Gaj, le « Gaj de Tito », ou simplement Gaj, est à la fois un complexe mémorial et un parc forestier qui s'étend sur 8,5 km2. À proximité se trouve la colline de Torlak, qui a joué un rôle important pendant la Seconde Guerre mondiale ; elle abrite un mémorial en l'honneur du voïvode Stepa Stepanović.
 Stepin Lug est divisé en plusieurs secteurs :
@@ -580,7 +596,9 @@
           <t>Flore et faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Stepin Lug abrite des conifères et des arbres à feuilles caduques.
 Arbres à feuilles persistantes :
